--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3352,28 +3352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.1399026441145</v>
+        <v>153.6164447260422</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.694912048013</v>
+        <v>210.1847967533157</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.8313976350666</v>
+        <v>190.1250547474543</v>
       </c>
       <c r="AD2" t="n">
-        <v>129139.9026441145</v>
+        <v>153616.4447260422</v>
       </c>
       <c r="AE2" t="n">
-        <v>176694.912048013</v>
+        <v>210184.7967533157</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.363225427086447e-06</v>
+        <v>6.222847581055697e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.519675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>159831.3976350666</v>
+        <v>190125.0547474543</v>
       </c>
     </row>
     <row r="3">
@@ -3458,28 +3458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.32001316840082</v>
+        <v>114.5406221951646</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.5798266547146</v>
+        <v>156.7195324629729</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.7855414441972</v>
+        <v>141.762440241995</v>
       </c>
       <c r="AD3" t="n">
-        <v>90320.01316840082</v>
+        <v>114540.6221951646</v>
       </c>
       <c r="AE3" t="n">
-        <v>123579.8266547146</v>
+        <v>156719.5324629729</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.50413501621223e-06</v>
+        <v>8.333829027531345e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.373842592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>111785.5414441972</v>
+        <v>141762.440241995</v>
       </c>
     </row>
     <row r="4">
@@ -3564,28 +3564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.97849504441649</v>
+        <v>96.17418516664553</v>
       </c>
       <c r="AB4" t="n">
-        <v>114.903081789449</v>
+        <v>131.5897630505499</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.9368929309818</v>
+        <v>119.0310207524328</v>
       </c>
       <c r="AD4" t="n">
-        <v>83978.49504441649</v>
+        <v>96174.18516664553</v>
       </c>
       <c r="AE4" t="n">
-        <v>114903.081789449</v>
+        <v>131589.7630505499</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.950541364378734e-06</v>
+        <v>9.159797647262654e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.070023148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>103936.8929309818</v>
+        <v>119031.0207524328</v>
       </c>
     </row>
     <row r="5">
@@ -3670,28 +3670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>69.13743277749346</v>
+        <v>93.44329315027784</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.59688565439721</v>
+        <v>127.8532361153047</v>
       </c>
       <c r="AC5" t="n">
-        <v>85.56869165512765</v>
+        <v>115.6511027036377</v>
       </c>
       <c r="AD5" t="n">
-        <v>69137.43277749346</v>
+        <v>93443.29315027784</v>
       </c>
       <c r="AE5" t="n">
-        <v>94596.88565439721</v>
+        <v>127853.2361153047</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.144229201089096e-06</v>
+        <v>9.518170855447253e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.954282407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>85568.69165512765</v>
+        <v>115651.1027036377</v>
       </c>
     </row>
     <row r="6">
@@ -3776,28 +3776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>67.3527713721914</v>
+        <v>91.65863174497579</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.15503318595971</v>
+        <v>125.4113836468672</v>
       </c>
       <c r="AC6" t="n">
-        <v>83.35988615911559</v>
+        <v>113.4422972076257</v>
       </c>
       <c r="AD6" t="n">
-        <v>67352.7713721914</v>
+        <v>91658.63174497579</v>
       </c>
       <c r="AE6" t="n">
-        <v>92155.03318595971</v>
+        <v>125411.3836468672</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.281774874718282e-06</v>
+        <v>9.772666363103288e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.876157407407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>83359.88615911559</v>
+        <v>113442.2972076257</v>
       </c>
     </row>
     <row r="7">
@@ -3882,28 +3882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>66.12228785410058</v>
+        <v>90.42814822688496</v>
       </c>
       <c r="AB7" t="n">
-        <v>90.47143135140711</v>
+        <v>123.7277818123146</v>
       </c>
       <c r="AC7" t="n">
-        <v>81.83696492070213</v>
+        <v>111.9193759692122</v>
       </c>
       <c r="AD7" t="n">
-        <v>66122.28785410058</v>
+        <v>90428.14822688495</v>
       </c>
       <c r="AE7" t="n">
-        <v>90471.43135140711</v>
+        <v>123727.7818123146</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.355825810120019e-06</v>
+        <v>9.909679981199893e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.838541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>81836.96492070213</v>
+        <v>111919.3759692122</v>
       </c>
     </row>
     <row r="8">
@@ -3988,28 +3988,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>64.90031734250442</v>
+        <v>89.20617771528883</v>
       </c>
       <c r="AB8" t="n">
-        <v>88.79947738790788</v>
+        <v>122.0558278488154</v>
       </c>
       <c r="AC8" t="n">
-        <v>80.32457989687661</v>
+        <v>110.4069909453867</v>
       </c>
       <c r="AD8" t="n">
-        <v>64900.31734250442</v>
+        <v>89206.17771528882</v>
       </c>
       <c r="AE8" t="n">
-        <v>88799.47738790789</v>
+        <v>122055.8278488154</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.433080367549775e-06</v>
+        <v>1.005262113880281e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.798032407407408</v>
       </c>
       <c r="AH8" t="n">
-        <v>80324.57989687662</v>
+        <v>110406.9909453867</v>
       </c>
     </row>
     <row r="9">
@@ -4094,28 +4094,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>63.59075777895924</v>
+        <v>87.89661815174364</v>
       </c>
       <c r="AB9" t="n">
-        <v>87.00768021937576</v>
+        <v>120.2640306802833</v>
       </c>
       <c r="AC9" t="n">
-        <v>78.70378933530552</v>
+        <v>108.7862003838156</v>
       </c>
       <c r="AD9" t="n">
-        <v>63590.75777895924</v>
+        <v>87896.61815174363</v>
       </c>
       <c r="AE9" t="n">
-        <v>87007.68021937576</v>
+        <v>120264.0306802833</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.517424908156294e-06</v>
+        <v>1.020868062154263e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.75462962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>78703.78933530551</v>
+        <v>108786.2003838156</v>
       </c>
     </row>
     <row r="10">
@@ -4200,28 +4200,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>62.75582815104163</v>
+        <v>87.06168852382602</v>
       </c>
       <c r="AB10" t="n">
-        <v>85.86529266796391</v>
+        <v>119.1216431288714</v>
       </c>
       <c r="AC10" t="n">
-        <v>77.67042964844906</v>
+        <v>107.7528406969591</v>
       </c>
       <c r="AD10" t="n">
-        <v>62755.82815104163</v>
+        <v>87061.68852382601</v>
       </c>
       <c r="AE10" t="n">
-        <v>85865.29266796392</v>
+        <v>119121.6431288714</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.539587670382914e-06</v>
+        <v>1.024968753419282e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.743055555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>77670.42964844906</v>
+        <v>107752.8406969591</v>
       </c>
     </row>
     <row r="11">
@@ -4306,28 +4306,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>62.81021424550684</v>
+        <v>87.11607461829122</v>
       </c>
       <c r="AB11" t="n">
-        <v>85.93970612175633</v>
+        <v>119.1960565826638</v>
       </c>
       <c r="AC11" t="n">
-        <v>77.73774118665149</v>
+        <v>107.8201522351616</v>
       </c>
       <c r="AD11" t="n">
-        <v>62810.21424550684</v>
+        <v>87116.07461829123</v>
       </c>
       <c r="AE11" t="n">
-        <v>85939.70612175633</v>
+        <v>119196.0565826638</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.542843810804834e-06</v>
+        <v>1.025571224647792e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.743055555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>77737.74118665149</v>
+        <v>107820.1522351616</v>
       </c>
     </row>
     <row r="12">
@@ -4412,28 +4412,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>62.84611903385275</v>
+        <v>87.15197940663714</v>
       </c>
       <c r="AB12" t="n">
-        <v>85.98883263717866</v>
+        <v>119.2451830980862</v>
       </c>
       <c r="AC12" t="n">
-        <v>77.78217913639141</v>
+        <v>107.8645901849015</v>
       </c>
       <c r="AD12" t="n">
-        <v>62846.11903385275</v>
+        <v>87151.97940663714</v>
       </c>
       <c r="AE12" t="n">
-        <v>85988.83263717865</v>
+        <v>119245.1830980862</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.540427964685344e-06</v>
+        <v>1.025124229865349e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.743055555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>77782.17913639141</v>
+        <v>107864.5901849015</v>
       </c>
     </row>
   </sheetData>
@@ -4709,28 +4709,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.2778705231035</v>
+        <v>132.3983252121115</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.0998740464164</v>
+        <v>181.1532295570024</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.3970088743084</v>
+        <v>163.8642195782874</v>
       </c>
       <c r="AD2" t="n">
-        <v>97277.8705231035</v>
+        <v>132398.3252121115</v>
       </c>
       <c r="AE2" t="n">
-        <v>133099.8740464164</v>
+        <v>181153.2295570024</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.967088952590085e-06</v>
+        <v>7.561883793990318e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.96412037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>120397.0088743084</v>
+        <v>163864.2195782874</v>
       </c>
     </row>
     <row r="3">
@@ -4815,28 +4815,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.3859309314296</v>
+        <v>92.14973257269772</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.98757707732</v>
+        <v>126.0833294651954</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.49051708962264</v>
+        <v>114.0501134601347</v>
       </c>
       <c r="AD3" t="n">
-        <v>80385.9309314296</v>
+        <v>92149.73257269771</v>
       </c>
       <c r="AE3" t="n">
-        <v>109987.57707732</v>
+        <v>126083.3294651954</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.021842714290243e-06</v>
+        <v>9.572407246468825e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.130787037037038</v>
       </c>
       <c r="AH3" t="n">
-        <v>99490.51708962265</v>
+        <v>114050.1134601347</v>
       </c>
     </row>
     <row r="4">
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.44997729896963</v>
+        <v>87.89206070983215</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.18330227274332</v>
+        <v>120.2577949871998</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.76721166989594</v>
+        <v>108.7805598165282</v>
       </c>
       <c r="AD4" t="n">
-        <v>64449.97729896962</v>
+        <v>87892.06070983215</v>
       </c>
       <c r="AE4" t="n">
-        <v>88183.30227274331</v>
+        <v>120257.7949871998</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.377538236998132e-06</v>
+        <v>1.025041780809326e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.922453703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>79767.21166989594</v>
+        <v>108780.5598165282</v>
       </c>
     </row>
     <row r="5">
@@ -5027,28 +5027,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.00694508355624</v>
+        <v>85.44902849441877</v>
       </c>
       <c r="AB5" t="n">
-        <v>84.84063781664172</v>
+        <v>116.9151305310983</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.7435664180246</v>
+        <v>105.7569145646569</v>
       </c>
       <c r="AD5" t="n">
-        <v>62006.94508355624</v>
+        <v>85449.02849441877</v>
       </c>
       <c r="AE5" t="n">
-        <v>84840.63781664171</v>
+        <v>116915.1305310983</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.592194264219587e-06</v>
+        <v>1.065958532435692e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.8125</v>
       </c>
       <c r="AH5" t="n">
-        <v>76743.56641802459</v>
+        <v>105756.9145646569</v>
       </c>
     </row>
     <row r="6">
@@ -5133,28 +5133,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>60.5649049329972</v>
+        <v>84.00698834385975</v>
       </c>
       <c r="AB6" t="n">
-        <v>82.86757486432636</v>
+        <v>114.9420675787829</v>
       </c>
       <c r="AC6" t="n">
-        <v>74.95880982466633</v>
+        <v>103.9721579712986</v>
       </c>
       <c r="AD6" t="n">
-        <v>60564.9049329972</v>
+        <v>84006.98834385975</v>
       </c>
       <c r="AE6" t="n">
-        <v>82867.57486432635</v>
+        <v>114942.0675787829</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.697430590397253e-06</v>
+        <v>1.086018200342619e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.760416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>74958.80982466633</v>
+        <v>103972.1579712986</v>
       </c>
     </row>
     <row r="7">
@@ -5239,28 +5239,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>59.10306641482914</v>
+        <v>82.54514982569167</v>
       </c>
       <c r="AB7" t="n">
-        <v>80.86742291200599</v>
+        <v>112.9419156264625</v>
       </c>
       <c r="AC7" t="n">
-        <v>73.14954956744388</v>
+        <v>102.1628977140762</v>
       </c>
       <c r="AD7" t="n">
-        <v>59103.06641482914</v>
+        <v>82545.14982569167</v>
       </c>
       <c r="AE7" t="n">
-        <v>80867.42291200599</v>
+        <v>112941.9156264625</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.773437622055774e-06</v>
+        <v>1.100506313611483e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.722800925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>73149.54956744389</v>
+        <v>102162.8977140762</v>
       </c>
     </row>
     <row r="8">
@@ -5345,28 +5345,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>58.26431642818832</v>
+        <v>81.70639983905085</v>
       </c>
       <c r="AB8" t="n">
-        <v>79.71980817724672</v>
+        <v>111.7943008917033</v>
       </c>
       <c r="AC8" t="n">
-        <v>72.11146157228228</v>
+        <v>101.1248097189146</v>
       </c>
       <c r="AD8" t="n">
-        <v>58264.31642818831</v>
+        <v>81706.39983905085</v>
       </c>
       <c r="AE8" t="n">
-        <v>79719.80817724671</v>
+        <v>111794.3008917033</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.845043960673308e-06</v>
+        <v>1.114155586869785e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.690972222222223</v>
       </c>
       <c r="AH8" t="n">
-        <v>72111.46157228228</v>
+        <v>101124.8097189146</v>
       </c>
     </row>
     <row r="9">
@@ -5451,28 +5451,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>58.36129094813994</v>
+        <v>81.80337435900246</v>
       </c>
       <c r="AB9" t="n">
-        <v>79.85249299365834</v>
+        <v>111.9269857081149</v>
       </c>
       <c r="AC9" t="n">
-        <v>72.23148313603994</v>
+        <v>101.2448312826722</v>
       </c>
       <c r="AD9" t="n">
-        <v>58361.29094813994</v>
+        <v>81803.37435900247</v>
       </c>
       <c r="AE9" t="n">
-        <v>79852.49299365835</v>
+        <v>111926.9857081149</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.840860585807185e-06</v>
+        <v>1.113358171057274e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.690972222222223</v>
       </c>
       <c r="AH9" t="n">
-        <v>72231.48313603994</v>
+        <v>101244.8312826722</v>
       </c>
     </row>
   </sheetData>
@@ -5748,28 +5748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.26698512684906</v>
+        <v>74.10852925465892</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.88223902406052</v>
+        <v>101.3985591637501</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.92646042248542</v>
+        <v>91.72122299095878</v>
       </c>
       <c r="AD2" t="n">
-        <v>53266.98512684906</v>
+        <v>74108.52925465892</v>
       </c>
       <c r="AE2" t="n">
-        <v>72882.23902406053</v>
+        <v>101398.5591637501</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.874269792898252e-06</v>
+        <v>1.251065734523179e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.986111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>65926.46042248543</v>
+        <v>91721.22299095878</v>
       </c>
     </row>
     <row r="3">
@@ -5854,28 +5854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.17512698151437</v>
+        <v>69.01667110932424</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.9153340726898</v>
+        <v>94.43165421237936</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.62446710155879</v>
+        <v>85.41922967003215</v>
       </c>
       <c r="AD3" t="n">
-        <v>48175.12698151437</v>
+        <v>69016.67110932423</v>
       </c>
       <c r="AE3" t="n">
-        <v>65915.3340726898</v>
+        <v>94431.65421237936</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.579203992634268e-06</v>
+        <v>1.401198270732097e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.664930555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>59624.4671015588</v>
+        <v>85419.22967003215</v>
       </c>
     </row>
     <row r="4">
@@ -5960,28 +5960,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>47.97429633794783</v>
+        <v>68.81584046575769</v>
       </c>
       <c r="AB4" t="n">
-        <v>65.6405487261395</v>
+        <v>94.15686886582907</v>
       </c>
       <c r="AC4" t="n">
-        <v>59.37590688281952</v>
+        <v>85.17066945129287</v>
       </c>
       <c r="AD4" t="n">
-        <v>47974.29633794783</v>
+        <v>68815.84046575769</v>
       </c>
       <c r="AE4" t="n">
-        <v>65640.5487261395</v>
+        <v>94156.86886582906</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.613517095235799e-06</v>
+        <v>1.408506063602259e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.653356481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>59375.90688281952</v>
+        <v>85170.66945129287</v>
       </c>
     </row>
   </sheetData>
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.22489250163139</v>
+        <v>85.19677805638264</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.5577724918419</v>
+        <v>116.5699903532735</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.86524122247484</v>
+        <v>105.4447140809963</v>
       </c>
       <c r="AD2" t="n">
-        <v>74224.89250163139</v>
+        <v>85196.77805638264</v>
       </c>
       <c r="AE2" t="n">
-        <v>101557.7724918419</v>
+        <v>116569.9903532735</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.110224568721829e-06</v>
+        <v>1.037552264093995e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.284143518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>91865.24122247484</v>
+        <v>105444.7140809963</v>
       </c>
     </row>
     <row r="3">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.32238764208365</v>
+        <v>77.18063887991241</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.69453142336231</v>
+        <v>105.6019550849311</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.47035158227592</v>
+        <v>95.52345270492684</v>
       </c>
       <c r="AD3" t="n">
-        <v>55322.38764208365</v>
+        <v>77180.63887991241</v>
       </c>
       <c r="AE3" t="n">
-        <v>75694.53142336231</v>
+        <v>105601.9550849311</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.955007697784863e-06</v>
+        <v>1.209072446121336e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.818287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>68470.35158227592</v>
+        <v>95523.45270492684</v>
       </c>
     </row>
     <row r="4">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.59232129048456</v>
+        <v>74.45057252831332</v>
       </c>
       <c r="AB4" t="n">
-        <v>71.95913419907924</v>
+        <v>101.866557860648</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.09145542641431</v>
+        <v>92.14455654906524</v>
       </c>
       <c r="AD4" t="n">
-        <v>52592.32129048456</v>
+        <v>74450.57252831332</v>
       </c>
       <c r="AE4" t="n">
-        <v>71959.13419907924</v>
+        <v>101866.557860648</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.244992295156494e-06</v>
+        <v>1.267949345073465e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.688078703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>65091.45542641432</v>
+        <v>92144.55654906524</v>
       </c>
     </row>
     <row r="5">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>51.61841306804865</v>
+        <v>73.47666430587742</v>
       </c>
       <c r="AB5" t="n">
-        <v>70.62659000334472</v>
+        <v>100.5340136649135</v>
       </c>
       <c r="AC5" t="n">
-        <v>63.88608737848274</v>
+        <v>90.93918850113366</v>
       </c>
       <c r="AD5" t="n">
-        <v>51618.41306804865</v>
+        <v>73476.66430587742</v>
       </c>
       <c r="AE5" t="n">
-        <v>70626.59000334471</v>
+        <v>100534.0136649135</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.348458799498692e-06</v>
+        <v>1.288956622619585e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.644675925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>63886.08737848274</v>
+        <v>90939.18850113366</v>
       </c>
     </row>
   </sheetData>
@@ -6872,28 +6872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.50922304534589</v>
+        <v>66.51685878476097</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.63597081273055</v>
+        <v>91.01130070597731</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.5626430720229</v>
+        <v>82.32530990178374</v>
       </c>
       <c r="AD2" t="n">
-        <v>46509.22304534589</v>
+        <v>66516.85878476097</v>
       </c>
       <c r="AE2" t="n">
-        <v>63635.97081273055</v>
+        <v>91011.30070597731</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.518116132459938e-06</v>
+        <v>1.451457148220492e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.795138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>57562.6430720229</v>
+        <v>82325.30990178374</v>
       </c>
     </row>
     <row r="3">
@@ -6978,28 +6978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.95597112300501</v>
+        <v>64.96360686242011</v>
       </c>
       <c r="AB3" t="n">
-        <v>61.51074300794627</v>
+        <v>88.886072901193</v>
       </c>
       <c r="AC3" t="n">
-        <v>55.64024402615058</v>
+        <v>80.40291085591141</v>
       </c>
       <c r="AD3" t="n">
-        <v>44955.97112300502</v>
+        <v>64963.60686242011</v>
       </c>
       <c r="AE3" t="n">
-        <v>61510.74300794626</v>
+        <v>88886.07290119301</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.793138410278249e-06</v>
+        <v>1.51269923764436e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.682291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>55640.24402615058</v>
+        <v>80402.91085591141</v>
       </c>
     </row>
   </sheetData>
@@ -7275,28 +7275,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.702680927896</v>
+        <v>137.3718902370588</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.5730242537368</v>
+        <v>187.958280642335</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.7253531671137</v>
+        <v>170.0198061389872</v>
       </c>
       <c r="AD2" t="n">
-        <v>113702.680927896</v>
+        <v>137371.8902370588</v>
       </c>
       <c r="AE2" t="n">
-        <v>155573.0242537368</v>
+        <v>187958.280642335</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.808101988471386e-06</v>
+        <v>7.200220886212045e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.091435185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>140725.3531671137</v>
+        <v>170019.8061389872</v>
       </c>
     </row>
     <row r="3">
@@ -7381,28 +7381,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.94185708117465</v>
+        <v>94.81917691731738</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.484707994903</v>
+        <v>129.7357809850751</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.6538867406867</v>
+        <v>117.3539801332062</v>
       </c>
       <c r="AD3" t="n">
-        <v>82941.85708117465</v>
+        <v>94819.17691731738</v>
       </c>
       <c r="AE3" t="n">
-        <v>113484.707994903</v>
+        <v>129735.7809850751</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.873033122251156e-06</v>
+        <v>9.213753983548151e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.197337962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>102653.8867406867</v>
+        <v>117353.9801332061</v>
       </c>
     </row>
     <row r="4">
@@ -7487,28 +7487,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.18056407217622</v>
+        <v>89.84968387278798</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.55116744394346</v>
+        <v>122.9363013629933</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.90909111247716</v>
+        <v>111.2034333031241</v>
       </c>
       <c r="AD4" t="n">
-        <v>66180.56407217622</v>
+        <v>89849.68387278798</v>
       </c>
       <c r="AE4" t="n">
-        <v>90551.16744394346</v>
+        <v>122936.3013629933</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.267529831751352e-06</v>
+        <v>9.959654029262374e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.957175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>81909.09111247715</v>
+        <v>111203.4333031241</v>
       </c>
     </row>
     <row r="5">
@@ -7593,28 +7593,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>64.01839085179546</v>
+        <v>87.6875106524072</v>
       </c>
       <c r="AB5" t="n">
-        <v>87.59278665546965</v>
+        <v>119.9779205745195</v>
       </c>
       <c r="AC5" t="n">
-        <v>79.23305403434084</v>
+        <v>108.5273962249878</v>
       </c>
       <c r="AD5" t="n">
-        <v>64018.39085179546</v>
+        <v>87687.5106524072</v>
       </c>
       <c r="AE5" t="n">
-        <v>87592.78665546965</v>
+        <v>119977.9205745195</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.456459673929076e-06</v>
+        <v>1.031687571077066e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.855902777777777</v>
       </c>
       <c r="AH5" t="n">
-        <v>79233.05403434084</v>
+        <v>108527.3962249878</v>
       </c>
     </row>
     <row r="6">
@@ -7699,28 +7699,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.07403282313142</v>
+        <v>85.74315262374317</v>
       </c>
       <c r="AB6" t="n">
-        <v>84.93243022163063</v>
+        <v>117.3175641406805</v>
       </c>
       <c r="AC6" t="n">
-        <v>76.82659828471284</v>
+        <v>106.1209404753598</v>
       </c>
       <c r="AD6" t="n">
-        <v>62074.03282313142</v>
+        <v>85743.15262374317</v>
       </c>
       <c r="AE6" t="n">
-        <v>84932.43022163062</v>
+        <v>117317.5641406805</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.609154183024552e-06</v>
+        <v>1.060558494096659e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>76826.59828471285</v>
+        <v>106120.9404753598</v>
       </c>
     </row>
     <row r="7">
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>60.9396149057247</v>
+        <v>84.60873470633643</v>
       </c>
       <c r="AB7" t="n">
-        <v>83.38026958004914</v>
+        <v>115.765403499099</v>
       </c>
       <c r="AC7" t="n">
-        <v>75.42257367629225</v>
+        <v>104.7169158669392</v>
       </c>
       <c r="AD7" t="n">
-        <v>60939.61490572469</v>
+        <v>84608.73470633643</v>
       </c>
       <c r="AE7" t="n">
-        <v>83380.26958004915</v>
+        <v>115765.403499099</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.681140275641143e-06</v>
+        <v>1.074169362953215e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.743055555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>75422.57367629225</v>
+        <v>104716.9158669392</v>
       </c>
     </row>
     <row r="8">
@@ -7911,28 +7911,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>59.52168150056342</v>
+        <v>83.19080130117517</v>
       </c>
       <c r="AB8" t="n">
-        <v>81.44019054030153</v>
+        <v>113.8253244593514</v>
       </c>
       <c r="AC8" t="n">
-        <v>73.66765305717951</v>
+        <v>102.9619952478265</v>
       </c>
       <c r="AD8" t="n">
-        <v>59521.68150056343</v>
+        <v>83190.80130117518</v>
       </c>
       <c r="AE8" t="n">
-        <v>81440.19054030153</v>
+        <v>113825.3244593514</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.76631753706182e-06</v>
+        <v>1.090274370081916e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.702546296296296</v>
       </c>
       <c r="AH8" t="n">
-        <v>73667.6530571795</v>
+        <v>102961.9952478265</v>
       </c>
     </row>
     <row r="9">
@@ -8017,28 +8017,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>59.40384227188247</v>
+        <v>83.07296207249422</v>
       </c>
       <c r="AB9" t="n">
-        <v>81.27895770892047</v>
+        <v>113.6640916279703</v>
       </c>
       <c r="AC9" t="n">
-        <v>73.52180806093371</v>
+        <v>102.8161502515807</v>
       </c>
       <c r="AD9" t="n">
-        <v>59403.84227188247</v>
+        <v>83072.96207249422</v>
       </c>
       <c r="AE9" t="n">
-        <v>81278.95770892047</v>
+        <v>113664.0916279703</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.765832963513915e-06</v>
+        <v>1.090182748676e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.702546296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>73521.8080609337</v>
+        <v>102816.1502515807</v>
       </c>
     </row>
   </sheetData>
@@ -8314,28 +8314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.26594565408183</v>
+        <v>62.77978276910748</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.1983756027051</v>
+        <v>85.89806843320476</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.54856572063688</v>
+        <v>77.70007734065639</v>
       </c>
       <c r="AD2" t="n">
-        <v>43265.94565408183</v>
+        <v>62779.78276910748</v>
       </c>
       <c r="AE2" t="n">
-        <v>59198.3756027051</v>
+        <v>85898.06843320475</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.825745777969662e-06</v>
+        <v>1.56484778021328e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.731481481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>53548.56572063688</v>
+        <v>77700.0773406564</v>
       </c>
     </row>
     <row r="3">
@@ -8420,28 +8420,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.46292083560779</v>
+        <v>62.97675795063343</v>
       </c>
       <c r="AB3" t="n">
-        <v>59.46788573600049</v>
+        <v>86.16757856650015</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.79235418507049</v>
+        <v>77.94386580509</v>
       </c>
       <c r="AD3" t="n">
-        <v>43462.92083560779</v>
+        <v>62976.75795063344</v>
       </c>
       <c r="AE3" t="n">
-        <v>59467.88573600049</v>
+        <v>86167.57856650016</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.812729874870034e-06</v>
+        <v>1.5618637975489e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.737268518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>53792.35418507049</v>
+        <v>77943.86580509</v>
       </c>
     </row>
   </sheetData>
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.22044008966367</v>
+        <v>108.0110214229773</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.6023657911038</v>
+        <v>147.7854446208152</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.4739996524793</v>
+        <v>133.681009204419</v>
       </c>
       <c r="AD2" t="n">
-        <v>85220.44008966367</v>
+        <v>108011.0214229773</v>
       </c>
       <c r="AE2" t="n">
-        <v>116602.3657911038</v>
+        <v>147785.4446208153</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.487449255950634e-06</v>
+        <v>8.795338525409883e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.608217592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>105473.9996524793</v>
+        <v>133681.009204419</v>
       </c>
     </row>
     <row r="3">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.95387960314719</v>
+        <v>84.65912008188926</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.76803128526234</v>
+        <v>115.8343429927762</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.67788935209613</v>
+        <v>104.7792758720971</v>
       </c>
       <c r="AD3" t="n">
-        <v>61953.87960314719</v>
+        <v>84659.12008188925</v>
       </c>
       <c r="AE3" t="n">
-        <v>84768.03128526233</v>
+        <v>115834.3429927762</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.449849184319655e-06</v>
+        <v>1.06816290847095e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.971643518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>76677.88935209613</v>
+        <v>104779.2758720971</v>
       </c>
     </row>
     <row r="4">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.52530317339426</v>
+        <v>81.23054365213632</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.0769017559599</v>
+        <v>111.1432134634738</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.43447464102719</v>
+        <v>100.5358611610282</v>
       </c>
       <c r="AD4" t="n">
-        <v>58525.30317339426</v>
+        <v>81230.54365213632</v>
       </c>
       <c r="AE4" t="n">
-        <v>80076.9017559599</v>
+        <v>111143.2134634738</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.793655405458635e-06</v>
+        <v>1.135548452676255e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.795138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>72434.47464102719</v>
+        <v>100535.8611610282</v>
       </c>
     </row>
     <row r="5">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.72665802163245</v>
+        <v>79.4318985003745</v>
       </c>
       <c r="AB5" t="n">
-        <v>77.61591610869681</v>
+        <v>108.6822278162107</v>
       </c>
       <c r="AC5" t="n">
-        <v>70.20836200992306</v>
+        <v>98.30974852992402</v>
       </c>
       <c r="AD5" t="n">
-        <v>56726.65802163244</v>
+        <v>79431.8985003745</v>
       </c>
       <c r="AE5" t="n">
-        <v>77615.91610869681</v>
+        <v>108682.2278162107</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.959345150585857e-06</v>
+        <v>1.168023413739053e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.717013888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>70208.36200992306</v>
+        <v>98309.74852992402</v>
       </c>
     </row>
     <row r="6">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>55.19767851216031</v>
+        <v>77.90291899090236</v>
       </c>
       <c r="AB6" t="n">
-        <v>75.52389889002276</v>
+        <v>106.5902105975367</v>
       </c>
       <c r="AC6" t="n">
-        <v>68.316003978434</v>
+        <v>96.41739049843495</v>
       </c>
       <c r="AD6" t="n">
-        <v>55197.67851216031</v>
+        <v>77902.91899090237</v>
       </c>
       <c r="AE6" t="n">
-        <v>75523.89889002277</v>
+        <v>106590.2105975367</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.070290108302799e-06</v>
+        <v>1.189768472126373e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.667824074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>68316.003978434</v>
+        <v>96417.39049843495</v>
       </c>
     </row>
     <row r="7">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>55.25102698311103</v>
+        <v>77.9562674618531</v>
       </c>
       <c r="AB7" t="n">
-        <v>75.59689262154596</v>
+        <v>106.6632043290598</v>
       </c>
       <c r="AC7" t="n">
-        <v>68.38203129066798</v>
+        <v>96.48341781066894</v>
       </c>
       <c r="AD7" t="n">
-        <v>55251.02698311103</v>
+        <v>77956.2674618531</v>
       </c>
       <c r="AE7" t="n">
-        <v>75596.89262154597</v>
+        <v>106663.2043290598</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.067547271305761e-06</v>
+        <v>1.189230879865536e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.670717592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>68382.03129066798</v>
+        <v>96483.41781066894</v>
       </c>
     </row>
   </sheetData>
@@ -9544,28 +9544,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.72644451388615</v>
+        <v>117.018199045895</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.2406563027499</v>
+        <v>160.1094624131169</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.0015480521409</v>
+        <v>144.8288400354949</v>
       </c>
       <c r="AD2" t="n">
-        <v>93726.44451388615</v>
+        <v>117018.199045895</v>
       </c>
       <c r="AE2" t="n">
-        <v>128240.6563027499</v>
+        <v>160109.4624131169</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.103492035847138e-06</v>
+        <v>7.889796781158286e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.868634259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>116001.5480521409</v>
+        <v>144828.8400354949</v>
       </c>
     </row>
     <row r="3">
@@ -9650,28 +9650,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.34975813164681</v>
+        <v>89.99572490620228</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.2015956230545</v>
+        <v>123.1361211477864</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.97042579520185</v>
+        <v>111.3841825681054</v>
       </c>
       <c r="AD3" t="n">
-        <v>78349.75813164681</v>
+        <v>89995.72490620229</v>
       </c>
       <c r="AE3" t="n">
-        <v>107201.5956230545</v>
+        <v>123136.1211477864</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.138154050258666e-06</v>
+        <v>9.879144624307098e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.08738425925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>96970.42579520185</v>
+        <v>111384.1825681054</v>
       </c>
     </row>
     <row r="4">
@@ -9756,28 +9756,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.47668181853957</v>
+        <v>85.6830954959768</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.48335234076777</v>
+        <v>117.2353913289371</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.32494117002375</v>
+        <v>106.0466101214389</v>
       </c>
       <c r="AD4" t="n">
-        <v>62476.68181853957</v>
+        <v>85683.0954959768</v>
       </c>
       <c r="AE4" t="n">
-        <v>85483.35234076777</v>
+        <v>117235.3913289371</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.516259532758168e-06</v>
+        <v>1.060612920054181e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.876157407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>77324.94117002375</v>
+        <v>106046.6101214389</v>
       </c>
     </row>
     <row r="5">
@@ -9862,28 +9862,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.21082630262489</v>
+        <v>83.41723998006212</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.38310886140449</v>
+        <v>114.1351478495738</v>
       </c>
       <c r="AC5" t="n">
-        <v>74.52058057711088</v>
+        <v>103.242249528526</v>
       </c>
       <c r="AD5" t="n">
-        <v>60210.82630262489</v>
+        <v>83417.23998006212</v>
       </c>
       <c r="AE5" t="n">
-        <v>82383.1088614045</v>
+        <v>114135.1478495738</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.720339965073318e-06</v>
+        <v>1.099851527657451e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.77488425925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>74520.58057711087</v>
+        <v>103242.2495285261</v>
       </c>
     </row>
     <row r="6">
@@ -9968,28 +9968,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.64943069626246</v>
+        <v>81.85584437369968</v>
       </c>
       <c r="AB6" t="n">
-        <v>80.24673850886789</v>
+        <v>111.9987774970372</v>
       </c>
       <c r="AC6" t="n">
-        <v>72.58810241260508</v>
+        <v>101.3097713640202</v>
       </c>
       <c r="AD6" t="n">
-        <v>58649.43069626245</v>
+        <v>81855.84437369969</v>
       </c>
       <c r="AE6" t="n">
-        <v>80246.73850886789</v>
+        <v>111998.7774970372</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.82860515544959e-06</v>
+        <v>1.120667709170177e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.722800925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>72588.10241260508</v>
+        <v>101309.7713640202</v>
       </c>
     </row>
     <row r="7">
@@ -10074,28 +10074,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>57.39764004154879</v>
+        <v>80.60405371898601</v>
       </c>
       <c r="AB7" t="n">
-        <v>78.53398330998343</v>
+        <v>110.2860222981528</v>
       </c>
       <c r="AC7" t="n">
-        <v>71.03881016603457</v>
+        <v>99.76047911744975</v>
       </c>
       <c r="AD7" t="n">
-        <v>57397.64004154879</v>
+        <v>80604.053718986</v>
       </c>
       <c r="AE7" t="n">
-        <v>78533.98330998342</v>
+        <v>110286.0222981528</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.910105698964857e-06</v>
+        <v>1.136337843784113e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.685185185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>71038.81016603457</v>
+        <v>99760.47911744975</v>
       </c>
     </row>
     <row r="8">
@@ -10180,28 +10180,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>57.47683948004939</v>
+        <v>80.68325315748662</v>
       </c>
       <c r="AB8" t="n">
-        <v>78.64234747577252</v>
+        <v>110.3943864639419</v>
       </c>
       <c r="AC8" t="n">
-        <v>71.13683220793085</v>
+        <v>99.85850115934602</v>
       </c>
       <c r="AD8" t="n">
-        <v>57476.83948004938</v>
+        <v>80683.25315748662</v>
       </c>
       <c r="AE8" t="n">
-        <v>78642.34747577252</v>
+        <v>110394.3864639419</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.896833066710015e-06</v>
+        <v>1.133785910690861e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.690972222222223</v>
       </c>
       <c r="AH8" t="n">
-        <v>71136.83220793086</v>
+        <v>99858.50115934602</v>
       </c>
     </row>
   </sheetData>
@@ -10477,28 +10477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.3176701834551</v>
+        <v>147.4181297161733</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.7286767365747</v>
+        <v>201.7039887064583</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.625448641068</v>
+        <v>182.4536431176974</v>
       </c>
       <c r="AD2" t="n">
-        <v>123317.6701834551</v>
+        <v>147418.1297161733</v>
       </c>
       <c r="AE2" t="n">
-        <v>168728.6767365747</v>
+        <v>201703.9887064583</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.516633536297913e-06</v>
+        <v>6.551221554043935e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.354745370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>152625.448641068</v>
+        <v>182453.6431176974</v>
       </c>
     </row>
     <row r="3">
@@ -10583,28 +10583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.50827073970748</v>
+        <v>99.6012156876279</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.732676618457</v>
+        <v>136.2787773992718</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.3055580078898</v>
+        <v>123.2725221527871</v>
       </c>
       <c r="AD3" t="n">
-        <v>87508.27073970748</v>
+        <v>99601.2156876279</v>
       </c>
       <c r="AE3" t="n">
-        <v>119732.676618457</v>
+        <v>136278.7773992718</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.64437660368948e-06</v>
+        <v>8.652121353315305e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.298611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>108305.5580078898</v>
+        <v>123272.5221527871</v>
       </c>
     </row>
     <row r="4">
@@ -10689,28 +10689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.29399664926211</v>
+        <v>94.38694159718256</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.5982767703756</v>
+        <v>129.1443775511904</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.8520552681139</v>
+        <v>116.8190194130113</v>
       </c>
       <c r="AD4" t="n">
-        <v>82293.99664926212</v>
+        <v>94386.94159718255</v>
       </c>
       <c r="AE4" t="n">
-        <v>112598.2767703756</v>
+        <v>129144.3775511904</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.029078705305897e-06</v>
+        <v>9.368792190347886e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>101852.0552681139</v>
+        <v>116819.0194130113</v>
       </c>
     </row>
     <row r="5">
@@ -10795,28 +10795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.29449291463344</v>
+        <v>91.39486293880057</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.07529402926482</v>
+        <v>125.0504835296</v>
       </c>
       <c r="AC5" t="n">
-        <v>83.28775719562103</v>
+        <v>113.1158408910238</v>
       </c>
       <c r="AD5" t="n">
-        <v>67294.49291463343</v>
+        <v>91394.86293880056</v>
       </c>
       <c r="AE5" t="n">
-        <v>92075.29402926483</v>
+        <v>125050.4835296</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.256713084960581e-06</v>
+        <v>9.792857774390834e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.913773148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>83287.75719562103</v>
+        <v>113115.8408910238</v>
       </c>
     </row>
     <row r="6">
@@ -10901,28 +10901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>65.79824804274296</v>
+        <v>89.8986180669101</v>
       </c>
       <c r="AB6" t="n">
-        <v>90.02806578588029</v>
+        <v>123.0032552862154</v>
       </c>
       <c r="AC6" t="n">
-        <v>81.43591354248157</v>
+        <v>111.2639972378844</v>
       </c>
       <c r="AD6" t="n">
-        <v>65798.24804274295</v>
+        <v>89898.6180669101</v>
       </c>
       <c r="AE6" t="n">
-        <v>90028.06578588029</v>
+        <v>123003.2552862154</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.361001393779122e-06</v>
+        <v>9.987138983824462e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.855902777777777</v>
       </c>
       <c r="AH6" t="n">
-        <v>81435.91354248158</v>
+        <v>111263.9972378844</v>
       </c>
     </row>
     <row r="7">
@@ -11007,28 +11007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>64.32529019666538</v>
+        <v>88.42566022083253</v>
       </c>
       <c r="AB7" t="n">
-        <v>88.01269987856402</v>
+        <v>120.9878893788992</v>
       </c>
       <c r="AC7" t="n">
-        <v>79.61289132877511</v>
+        <v>109.4409750241779</v>
       </c>
       <c r="AD7" t="n">
-        <v>64325.29019666538</v>
+        <v>88425.66022083252</v>
       </c>
       <c r="AE7" t="n">
-        <v>88012.69987856402</v>
+        <v>120987.8893788992</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.471165845886424e-06</v>
+        <v>1.01923670025206e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.800925925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>79612.89132877511</v>
+        <v>109440.9750241779</v>
       </c>
     </row>
     <row r="8">
@@ -11113,28 +11113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>63.00602897541197</v>
+        <v>87.1063989995791</v>
       </c>
       <c r="AB8" t="n">
-        <v>86.20762847394859</v>
+        <v>119.1828179742838</v>
       </c>
       <c r="AC8" t="n">
-        <v>77.98009340558198</v>
+        <v>107.8081771009848</v>
       </c>
       <c r="AD8" t="n">
-        <v>63006.02897541197</v>
+        <v>87106.39899957911</v>
       </c>
       <c r="AE8" t="n">
-        <v>86207.62847394859</v>
+        <v>119182.8179742838</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.549408546614243e-06</v>
+        <v>1.033812721954745e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.760416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>77980.09340558198</v>
+        <v>107808.1771009848</v>
       </c>
     </row>
     <row r="9">
@@ -11219,28 +11219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>62.12778408034952</v>
+        <v>86.22815410451666</v>
       </c>
       <c r="AB9" t="n">
-        <v>85.00597506309451</v>
+        <v>117.9811645634297</v>
       </c>
       <c r="AC9" t="n">
-        <v>76.89312410972826</v>
+        <v>106.7212078051311</v>
       </c>
       <c r="AD9" t="n">
-        <v>62127.78408034952</v>
+        <v>86228.15410451667</v>
       </c>
       <c r="AE9" t="n">
-        <v>85005.97506309451</v>
+        <v>117981.1645634297</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.596311816468674e-06</v>
+        <v>1.042550445384095e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.737268518518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>76893.12410972826</v>
+        <v>106721.2078051311</v>
       </c>
     </row>
     <row r="10">
@@ -11325,28 +11325,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>61.42985735693184</v>
+        <v>85.53022738109898</v>
       </c>
       <c r="AB10" t="n">
-        <v>84.05104092976096</v>
+        <v>117.0262304300961</v>
       </c>
       <c r="AC10" t="n">
-        <v>76.02932754982129</v>
+        <v>105.8574112452241</v>
       </c>
       <c r="AD10" t="n">
-        <v>61429.85735693184</v>
+        <v>85530.22738109899</v>
       </c>
       <c r="AE10" t="n">
-        <v>84051.04092976096</v>
+        <v>117026.2304300961</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.619287007345449e-06</v>
+        <v>1.046830549185831e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.725694444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>76029.32754982129</v>
+        <v>105857.4112452241</v>
       </c>
     </row>
     <row r="11">
@@ -11431,28 +11431,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>61.5408414802535</v>
+        <v>85.64121150442064</v>
       </c>
       <c r="AB11" t="n">
-        <v>84.20289430356351</v>
+        <v>117.1780838038987</v>
       </c>
       <c r="AC11" t="n">
-        <v>76.16668825075574</v>
+        <v>105.9947719461585</v>
       </c>
       <c r="AD11" t="n">
-        <v>61540.8414802535</v>
+        <v>85641.21150442064</v>
       </c>
       <c r="AE11" t="n">
-        <v>84202.89430356352</v>
+        <v>117178.0838038987</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.619445822028929e-06</v>
+        <v>1.046860135156811e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.725694444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>76166.68825075575</v>
+        <v>105994.7719461585</v>
       </c>
     </row>
   </sheetData>
@@ -11728,28 +11728,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.77102108908738</v>
+        <v>99.84139586671296</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.4097420693487</v>
+        <v>136.6074025162975</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.25414563328805</v>
+        <v>123.5697837498723</v>
       </c>
       <c r="AD2" t="n">
-        <v>77771.02108908739</v>
+        <v>99841.39586671296</v>
       </c>
       <c r="AE2" t="n">
-        <v>106409.7420693487</v>
+        <v>136607.4025162975</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.891006196575489e-06</v>
+        <v>9.80400898414986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.388310185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>96254.14563328805</v>
+        <v>123569.7837498723</v>
       </c>
     </row>
     <row r="3">
@@ -11834,28 +11834,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.45733811444411</v>
+        <v>79.6129642380903</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.61566484701189</v>
+        <v>108.9299699466099</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.11269613180981</v>
+        <v>98.53384649910625</v>
       </c>
       <c r="AD3" t="n">
-        <v>57457.33811444412</v>
+        <v>79612.9642380903</v>
       </c>
       <c r="AE3" t="n">
-        <v>78615.66484701188</v>
+        <v>108929.9699466099</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.792452754977594e-06</v>
+        <v>1.161095622610861e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.861689814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>71112.69613180982</v>
+        <v>98533.84649910625</v>
       </c>
     </row>
     <row r="4">
@@ -11940,28 +11940,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.61639308774525</v>
+        <v>76.77201921139142</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.72855852783547</v>
+        <v>105.0428636274335</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.59656978414638</v>
+        <v>95.01772015144283</v>
       </c>
       <c r="AD4" t="n">
-        <v>54616.39308774525</v>
+        <v>76772.01921139142</v>
       </c>
       <c r="AE4" t="n">
-        <v>74728.55852783547</v>
+        <v>105042.8636274335</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.086196045831749e-06</v>
+        <v>1.219976387566429e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.722800925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>67596.56978414638</v>
+        <v>95017.72015144283</v>
       </c>
     </row>
     <row r="5">
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>52.92925376360762</v>
+        <v>75.08487988725379</v>
       </c>
       <c r="AB5" t="n">
-        <v>72.42014007321762</v>
+        <v>102.7344451728156</v>
       </c>
       <c r="AC5" t="n">
-        <v>65.50846354695089</v>
+        <v>92.92961391424733</v>
       </c>
       <c r="AD5" t="n">
-        <v>52929.25376360762</v>
+        <v>75084.87988725379</v>
       </c>
       <c r="AE5" t="n">
-        <v>72420.14007321763</v>
+        <v>102734.4451728156</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.230175502491399e-06</v>
+        <v>1.248837031570776e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.659143518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>65508.46354695089</v>
+        <v>92929.61391424733</v>
       </c>
     </row>
     <row r="6">
@@ -12152,28 +12152,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>52.94677974870875</v>
+        <v>75.10240587235492</v>
       </c>
       <c r="AB6" t="n">
-        <v>72.4441198992249</v>
+        <v>102.7584249988229</v>
       </c>
       <c r="AC6" t="n">
-        <v>65.53015477201991</v>
+        <v>92.95130513931636</v>
       </c>
       <c r="AD6" t="n">
-        <v>52946.77974870875</v>
+        <v>75102.40587235492</v>
       </c>
       <c r="AE6" t="n">
-        <v>72444.1198992249</v>
+        <v>102758.4249988229</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.24964766448992e-06</v>
+        <v>1.252740221292923e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.650462962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>65530.15477201992</v>
+        <v>92951.30513931636</v>
       </c>
     </row>
   </sheetData>
@@ -12449,28 +12449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.36468358313915</v>
+        <v>78.01002209856209</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.17133199850805</v>
+        <v>106.7367537944923</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.37462943586983</v>
+        <v>96.54994781834782</v>
       </c>
       <c r="AD2" t="n">
-        <v>67364.68358313915</v>
+        <v>78010.02209856208</v>
       </c>
       <c r="AE2" t="n">
-        <v>92171.33199850805</v>
+        <v>106736.7537944923</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.586623290091662e-06</v>
+        <v>1.168756529865503e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.090277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>83374.62943586984</v>
+        <v>96549.94781834782</v>
       </c>
     </row>
     <row r="3">
@@ -12555,28 +12555,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.5264288360582</v>
+        <v>71.73158599523039</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.13248900219185</v>
+        <v>98.14632053286589</v>
       </c>
       <c r="AC3" t="n">
-        <v>62.53458127989549</v>
+        <v>88.77937345045953</v>
       </c>
       <c r="AD3" t="n">
-        <v>50526.4288360582</v>
+        <v>71731.58599523039</v>
       </c>
       <c r="AE3" t="n">
-        <v>69132.48900219184</v>
+        <v>98146.32053286588</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.371178609521376e-06</v>
+        <v>1.332890409135739e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>62534.58127989549</v>
+        <v>88779.37345045953</v>
       </c>
     </row>
     <row r="4">
@@ -12661,28 +12661,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>49.26966068326899</v>
+        <v>70.47481784244117</v>
       </c>
       <c r="AB4" t="n">
-        <v>67.41292337084869</v>
+        <v>96.42675490152271</v>
       </c>
       <c r="AC4" t="n">
-        <v>60.97912857898166</v>
+        <v>87.2239207495457</v>
       </c>
       <c r="AD4" t="n">
-        <v>49269.66068326899</v>
+        <v>70474.81784244117</v>
       </c>
       <c r="AE4" t="n">
-        <v>67412.92337084869</v>
+        <v>96426.75490152271</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.513998580224344e-06</v>
+        <v>1.362769240173146e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.650462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>60979.12857898166</v>
+        <v>87223.92074954569</v>
       </c>
     </row>
   </sheetData>
@@ -22691,28 +22691,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.86772107054477</v>
+        <v>70.31315062176087</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.23121597728115</v>
+        <v>96.20555467793362</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.71932448753736</v>
+        <v>87.02383156483941</v>
       </c>
       <c r="AD2" t="n">
-        <v>49867.72107054477</v>
+        <v>70313.15062176087</v>
       </c>
       <c r="AE2" t="n">
-        <v>68231.21597728116</v>
+        <v>96205.55467793361</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.191902172612029e-06</v>
+        <v>1.346030226432166e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.884837962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>61719.32448753736</v>
+        <v>87023.83156483941</v>
       </c>
     </row>
     <row r="3">
@@ -22797,28 +22797,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.51084715780475</v>
+        <v>66.95627670902086</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.63819299504756</v>
+        <v>91.61253169570001</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.56465317237844</v>
+        <v>82.86916024968048</v>
       </c>
       <c r="AD3" t="n">
-        <v>46510.84715780475</v>
+        <v>66956.27670902085</v>
       </c>
       <c r="AE3" t="n">
-        <v>63638.19299504756</v>
+        <v>91612.53169570002</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.69677541273142e-06</v>
+        <v>1.455782387040151e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.667824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>57564.65317237844</v>
+        <v>82869.16024968047</v>
       </c>
     </row>
   </sheetData>
@@ -23094,28 +23094,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.39047004235827</v>
+        <v>60.32988386987089</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.63226713044169</v>
+        <v>82.54600867735955</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.22736303950995</v>
+        <v>74.66793346326257</v>
       </c>
       <c r="AD2" t="n">
-        <v>41390.47004235827</v>
+        <v>60329.88386987089</v>
       </c>
       <c r="AE2" t="n">
-        <v>56632.26713044169</v>
+        <v>82546.00867735955</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.806887701313214e-06</v>
+        <v>1.619036593524703e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.815393518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>51227.36303950995</v>
+        <v>74667.93346326257</v>
       </c>
     </row>
   </sheetData>
@@ -23391,28 +23391,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.97759087271767</v>
+        <v>112.0241034750245</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.7430652462699</v>
+        <v>153.2763205291084</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.124077966663</v>
+        <v>138.6478436225192</v>
       </c>
       <c r="AD2" t="n">
-        <v>88977.59087271767</v>
+        <v>112024.1034750245</v>
       </c>
       <c r="AE2" t="n">
-        <v>121743.06524627</v>
+        <v>153276.3205291084</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.309915893153465e-06</v>
+        <v>8.363728804487437e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.718171296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>110124.077966663</v>
+        <v>138647.8436225192</v>
       </c>
     </row>
     <row r="3">
@@ -23497,28 +23497,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.87514460948088</v>
+        <v>87.39849041918534</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.8157202297852</v>
+        <v>119.5824703407528</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.90769359735908</v>
+        <v>108.1696872065137</v>
       </c>
       <c r="AD3" t="n">
-        <v>75875.14460948088</v>
+        <v>87398.49041918534</v>
       </c>
       <c r="AE3" t="n">
-        <v>103815.7202297852</v>
+        <v>119582.4703407528</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.294749899070431e-06</v>
+        <v>1.027487620205295e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.026620370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>93907.69359735909</v>
+        <v>108169.6872065137</v>
       </c>
     </row>
     <row r="4">
@@ -23603,28 +23603,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.50959379285483</v>
+        <v>83.47076554059005</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.79189572222832</v>
+        <v>114.2083838828692</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.89035339367378</v>
+        <v>103.3084960175911</v>
       </c>
       <c r="AD4" t="n">
-        <v>60509.59379285483</v>
+        <v>83470.76554059004</v>
       </c>
       <c r="AE4" t="n">
-        <v>82791.89572222832</v>
+        <v>114208.3838828692</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.653143285553516e-06</v>
+        <v>1.097036659309006e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.835648148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>74890.35339367378</v>
+        <v>103308.4960175911</v>
       </c>
     </row>
     <row r="5">
@@ -23709,28 +23709,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.46378153596461</v>
+        <v>81.42495328369982</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.99272513748559</v>
+        <v>111.4092132981265</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.35833172087743</v>
+        <v>100.7764743447948</v>
       </c>
       <c r="AD5" t="n">
-        <v>58463.7815359646</v>
+        <v>81424.95328369983</v>
       </c>
       <c r="AE5" t="n">
-        <v>79992.7251374856</v>
+        <v>111409.2132981265</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.824529551052536e-06</v>
+        <v>1.130295504283795e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.751736111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>72358.33172087742</v>
+        <v>100776.4743447948</v>
       </c>
     </row>
     <row r="6">
@@ -23815,28 +23815,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.03235632836883</v>
+        <v>79.99352807610404</v>
       </c>
       <c r="AB6" t="n">
-        <v>78.0341860184308</v>
+        <v>109.4506741790717</v>
       </c>
       <c r="AC6" t="n">
-        <v>70.58671282651767</v>
+        <v>99.00485545043502</v>
       </c>
       <c r="AD6" t="n">
-        <v>57032.35632836883</v>
+        <v>79993.52807610405</v>
       </c>
       <c r="AE6" t="n">
-        <v>78034.1860184308</v>
+        <v>109450.6741790716</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.926840615169114e-06</v>
+        <v>1.150149766296864e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.705439814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>70586.71282651767</v>
+        <v>99004.85545043502</v>
       </c>
     </row>
     <row r="7">
@@ -23921,28 +23921,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>56.0292372108188</v>
+        <v>78.99040895855401</v>
       </c>
       <c r="AB7" t="n">
-        <v>76.66167418730741</v>
+        <v>108.0781623479483</v>
       </c>
       <c r="AC7" t="n">
-        <v>69.34519159822379</v>
+        <v>97.76333422214114</v>
       </c>
       <c r="AD7" t="n">
-        <v>56029.2372108188</v>
+        <v>78990.40895855402</v>
       </c>
       <c r="AE7" t="n">
-        <v>76661.67418730741</v>
+        <v>108078.1623479483</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.008268478867745e-06</v>
+        <v>1.165951479972668e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.667824074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>69345.1915982238</v>
+        <v>97763.33422214114</v>
       </c>
     </row>
   </sheetData>
@@ -24218,28 +24218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.4359544012213</v>
+        <v>142.3243644634493</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.0492978372253</v>
+        <v>194.734474366622</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.5835402893032</v>
+        <v>176.149289444678</v>
       </c>
       <c r="AD2" t="n">
-        <v>118435.9544012213</v>
+        <v>142324.3644634493</v>
       </c>
       <c r="AE2" t="n">
-        <v>162049.2978372253</v>
+        <v>194734.474366622</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.657925839941137e-06</v>
+        <v>6.863703621217435e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.221643518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>146583.5402893032</v>
+        <v>176149.289444678</v>
       </c>
     </row>
     <row r="3">
@@ -24324,28 +24324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.30625967025273</v>
+        <v>97.29317988292807</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.7197879273584</v>
+        <v>133.1208209879297</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.5802151848528</v>
+        <v>120.4159566691229</v>
       </c>
       <c r="AD3" t="n">
-        <v>85306.25967025272</v>
+        <v>97293.17988292807</v>
       </c>
       <c r="AE3" t="n">
-        <v>116719.7879273584</v>
+        <v>133120.8209879297</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.752026148446763e-06</v>
+        <v>8.91666493811117e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.249421296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>105580.2151848528</v>
+        <v>120415.9566691229</v>
       </c>
     </row>
     <row r="4">
@@ -24430,28 +24430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.1135429039375</v>
+        <v>92.0018634576145</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.19595435856542</v>
+        <v>125.8810084184137</v>
       </c>
       <c r="AC4" t="n">
-        <v>84.30146327595017</v>
+        <v>113.8671016500984</v>
       </c>
       <c r="AD4" t="n">
-        <v>68113.5429039375</v>
+        <v>92001.8634576145</v>
       </c>
       <c r="AE4" t="n">
-        <v>93195.95435856542</v>
+        <v>125881.0084184137</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.15028357157017e-06</v>
+        <v>9.663952072098785e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.997685185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>84301.46327595017</v>
+        <v>113867.1016500984</v>
       </c>
     </row>
     <row r="5">
@@ -24536,28 +24536,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.83040621859558</v>
+        <v>89.71872677227257</v>
       </c>
       <c r="AB5" t="n">
-        <v>90.07206602080041</v>
+        <v>122.7571200806487</v>
       </c>
       <c r="AC5" t="n">
-        <v>81.47571445673566</v>
+        <v>111.0413528308839</v>
       </c>
       <c r="AD5" t="n">
-        <v>65830.40621859558</v>
+        <v>89718.72677227258</v>
       </c>
       <c r="AE5" t="n">
-        <v>90072.06602080041</v>
+        <v>122757.1200806487</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.337855825270163e-06</v>
+        <v>1.001591119136329e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.893518518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>81475.71445673566</v>
+        <v>111041.3528308839</v>
       </c>
     </row>
     <row r="6">
@@ -24642,28 +24642,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>64.0844131456993</v>
+        <v>87.97273369937629</v>
       </c>
       <c r="AB6" t="n">
-        <v>87.6831212706869</v>
+        <v>120.3681753305352</v>
       </c>
       <c r="AC6" t="n">
-        <v>79.31476724066719</v>
+        <v>108.8804056148154</v>
       </c>
       <c r="AD6" t="n">
-        <v>64084.41314569931</v>
+        <v>87972.73369937629</v>
       </c>
       <c r="AE6" t="n">
-        <v>87683.1212706869</v>
+        <v>120368.1753305352</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.480056304455361e-06</v>
+        <v>1.028273506550121e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.818287037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>79314.76724066719</v>
+        <v>108880.4056148154</v>
       </c>
     </row>
     <row r="7">
@@ -24748,28 +24748,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>62.75210317095266</v>
+        <v>86.64042372462966</v>
       </c>
       <c r="AB7" t="n">
-        <v>85.86019598587166</v>
+        <v>118.54525004572</v>
       </c>
       <c r="AC7" t="n">
-        <v>77.66581938654245</v>
+        <v>107.2314577606907</v>
       </c>
       <c r="AD7" t="n">
-        <v>62752.10317095266</v>
+        <v>86640.42372462965</v>
       </c>
       <c r="AE7" t="n">
-        <v>85860.19598587166</v>
+        <v>118545.25004572</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.56124509155772e-06</v>
+        <v>1.043507707472184e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>77665.81938654245</v>
+        <v>107231.4577606907</v>
       </c>
     </row>
     <row r="8">
@@ -24854,28 +24854,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>61.6642854379661</v>
+        <v>85.55260599164309</v>
       </c>
       <c r="AB8" t="n">
-        <v>84.37179577246887</v>
+        <v>117.0568498323172</v>
       </c>
       <c r="AC8" t="n">
-        <v>76.31947000052352</v>
+        <v>105.8851083746718</v>
       </c>
       <c r="AD8" t="n">
-        <v>61664.2854379661</v>
+        <v>85552.6059916431</v>
       </c>
       <c r="AE8" t="n">
-        <v>84371.79577246887</v>
+        <v>117056.8498323172</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.629516267562925e-06</v>
+        <v>1.056318057885938e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.743055555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>76319.47000052352</v>
+        <v>105885.1083746718</v>
       </c>
     </row>
     <row r="9">
@@ -24960,28 +24960,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>60.54830155335351</v>
+        <v>84.4366221070305</v>
       </c>
       <c r="AB9" t="n">
-        <v>82.84485738780846</v>
+        <v>115.5299114476567</v>
       </c>
       <c r="AC9" t="n">
-        <v>74.93826047222312</v>
+        <v>104.5038988463714</v>
       </c>
       <c r="AD9" t="n">
-        <v>60548.30155335351</v>
+        <v>84436.6221070305</v>
       </c>
       <c r="AE9" t="n">
-        <v>82844.85738780846</v>
+        <v>115529.9114476567</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.669016400669925e-06</v>
+        <v>1.063729832167547e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.725694444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>74938.26047222312</v>
+        <v>104503.8988463714</v>
       </c>
     </row>
     <row r="10">
@@ -25066,28 +25066,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>60.42558621534294</v>
+        <v>84.31390676901994</v>
       </c>
       <c r="AB10" t="n">
-        <v>82.67695284852384</v>
+        <v>115.3620069083721</v>
       </c>
       <c r="AC10" t="n">
-        <v>74.78638050651227</v>
+        <v>104.3520188806605</v>
       </c>
       <c r="AD10" t="n">
-        <v>60425.58621534294</v>
+        <v>84313.90676901993</v>
       </c>
       <c r="AE10" t="n">
-        <v>82676.95284852384</v>
+        <v>115362.0069083721</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.673179928213635e-06</v>
+        <v>1.064511073240473e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.722800925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>74786.38050651227</v>
+        <v>104352.0188806605</v>
       </c>
     </row>
   </sheetData>
@@ -25363,28 +25363,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.2746112719751</v>
+        <v>57.43489374375942</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.05145286783525</v>
+        <v>78.58495546886533</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.74759490993954</v>
+        <v>71.08491761361269</v>
       </c>
       <c r="AD2" t="n">
-        <v>48274.6112719751</v>
+        <v>57434.89374375941</v>
       </c>
       <c r="AE2" t="n">
-        <v>66051.45286783525</v>
+        <v>78584.95546886533</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.582901221989525e-06</v>
+        <v>1.646333638290506e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.015046296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>59747.59490993954</v>
+        <v>71084.91761361269</v>
       </c>
     </row>
   </sheetData>
@@ -25660,28 +25660,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.85995391272517</v>
+        <v>81.67399039561899</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.95371506388928</v>
+        <v>111.7499568613961</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.70058857360939</v>
+        <v>101.0846978206227</v>
       </c>
       <c r="AD2" t="n">
-        <v>70859.95391272518</v>
+        <v>81673.99039561898</v>
       </c>
       <c r="AE2" t="n">
-        <v>96953.71506388928</v>
+        <v>111749.9568613961</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.333474172456794e-06</v>
+        <v>1.098313513764608e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.188657407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>87700.58857360939</v>
+        <v>101084.6978206226</v>
       </c>
     </row>
     <row r="3">
@@ -25766,28 +25766,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.8975506673161</v>
+        <v>74.44010376143002</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.3767624982297</v>
+        <v>101.8522340319489</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.46922586683898</v>
+        <v>92.13159976647353</v>
       </c>
       <c r="AD3" t="n">
-        <v>52897.5506673161</v>
+        <v>74440.10376143003</v>
       </c>
       <c r="AE3" t="n">
-        <v>72376.7624982297</v>
+        <v>101852.2340319489</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.15738670416816e-06</v>
+        <v>1.267980458513638e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.763310185185186</v>
       </c>
       <c r="AH3" t="n">
-        <v>65469.22586683898</v>
+        <v>92131.59976647353</v>
       </c>
     </row>
     <row r="4">
@@ -25872,28 +25872,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>50.53210439072694</v>
+        <v>72.07465748484087</v>
       </c>
       <c r="AB4" t="n">
-        <v>69.14025454647739</v>
+        <v>98.61572608019662</v>
       </c>
       <c r="AC4" t="n">
-        <v>62.54160569153345</v>
+        <v>89.20397959116799</v>
       </c>
       <c r="AD4" t="n">
-        <v>50532.10439072693</v>
+        <v>72074.65748484086</v>
       </c>
       <c r="AE4" t="n">
-        <v>69140.25454647739</v>
+        <v>98615.72608019662</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.414172286652301e-06</v>
+        <v>1.320859888742947e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.653356481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>62541.60569153345</v>
+        <v>89203.979591168</v>
       </c>
     </row>
     <row r="5">
@@ -25978,28 +25978,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>50.58851488144452</v>
+        <v>72.13106797555845</v>
       </c>
       <c r="AB5" t="n">
-        <v>69.21743786853237</v>
+        <v>98.69290940225159</v>
       </c>
       <c r="AC5" t="n">
-        <v>62.611422745659</v>
+        <v>89.27379664529354</v>
       </c>
       <c r="AD5" t="n">
-        <v>50588.51488144453</v>
+        <v>72131.06797555846</v>
       </c>
       <c r="AE5" t="n">
-        <v>69217.43786853238</v>
+        <v>98692.90940225159</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.41946319837931e-06</v>
+        <v>1.321949437442727e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.650462962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>62611.422745659</v>
+        <v>89273.79664529355</v>
       </c>
     </row>
   </sheetData>
@@ -26275,28 +26275,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.39986019762783</v>
+        <v>103.7518826545824</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.374879830734</v>
+        <v>141.9579030579592</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.7454176153429</v>
+        <v>128.4096400293141</v>
       </c>
       <c r="AD2" t="n">
-        <v>81399.86019762783</v>
+        <v>103751.8826545824</v>
       </c>
       <c r="AE2" t="n">
-        <v>111374.879830734</v>
+        <v>141957.9030579592</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.686492802673881e-06</v>
+        <v>9.284805080642066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.49537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>100745.4176153429</v>
+        <v>128409.6400293141</v>
       </c>
     </row>
     <row r="3">
@@ -26381,28 +26381,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.75806242357136</v>
+        <v>82.19533622654656</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.76361734755116</v>
+        <v>112.4632852274256</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.96021246387771</v>
+        <v>101.7299471285612</v>
       </c>
       <c r="AD3" t="n">
-        <v>59758.06242357136</v>
+        <v>82195.33622654655</v>
       </c>
       <c r="AE3" t="n">
-        <v>81763.61734755116</v>
+        <v>112463.2852274256</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.613376934758272e-06</v>
+        <v>1.112113319659128e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>73960.21246387772</v>
+        <v>101729.9471285612</v>
       </c>
     </row>
     <row r="4">
@@ -26487,28 +26487,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.57203881753844</v>
+        <v>79.00931262051364</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.40435929233766</v>
+        <v>108.1040271722121</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.01699587919528</v>
+        <v>97.78673054387875</v>
       </c>
       <c r="AD4" t="n">
-        <v>56572.03881753844</v>
+        <v>79009.31262051364</v>
       </c>
       <c r="AE4" t="n">
-        <v>77404.35929233766</v>
+        <v>108104.0271722121</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.943129435584094e-06</v>
+        <v>1.177443361204805e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.75462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>70016.99587919528</v>
+        <v>97786.73054387874</v>
       </c>
     </row>
     <row r="5">
@@ -26593,28 +26593,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>54.5986712474662</v>
+        <v>77.03594505044138</v>
       </c>
       <c r="AB5" t="n">
-        <v>74.70431072413328</v>
+        <v>105.4039786040077</v>
       </c>
       <c r="AC5" t="n">
-        <v>67.57463615679751</v>
+        <v>95.34437082148098</v>
       </c>
       <c r="AD5" t="n">
-        <v>54598.6712474662</v>
+        <v>77035.94505044138</v>
       </c>
       <c r="AE5" t="n">
-        <v>74704.31072413328</v>
+        <v>105403.9786040077</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.118589914911256e-06</v>
+        <v>1.212205312593682e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.67650462962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>67574.63615679751</v>
+        <v>95344.37082148097</v>
       </c>
     </row>
     <row r="6">
@@ -26699,28 +26699,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>54.06731813162801</v>
+        <v>76.50459193460318</v>
       </c>
       <c r="AB6" t="n">
-        <v>73.97728994939878</v>
+        <v>104.6769578292732</v>
       </c>
       <c r="AC6" t="n">
-        <v>66.91700122442339</v>
+        <v>94.68673588910684</v>
       </c>
       <c r="AD6" t="n">
-        <v>54067.31813162801</v>
+        <v>76504.59193460319</v>
       </c>
       <c r="AE6" t="n">
-        <v>73977.28994939878</v>
+        <v>104676.9578292732</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.147172992995197e-06</v>
+        <v>1.217868146610257e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.664930555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>66917.00122442338</v>
+        <v>94686.73588910684</v>
       </c>
     </row>
   </sheetData>
